--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Inha</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>1.785988</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>8.134265676778664</v>
+        <v>6.255885144005777</v>
       </c>
       <c r="R2">
-        <v>73.20839109100798</v>
+        <v>56.302966296052</v>
       </c>
       <c r="S2">
-        <v>0.2163030132250088</v>
+        <v>0.1436933288463935</v>
       </c>
       <c r="T2">
-        <v>0.2163030132250088</v>
+        <v>0.1436933288463936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.785988</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
         <v>18.42302126538177</v>
@@ -638,10 +638,10 @@
         <v>165.807191388436</v>
       </c>
       <c r="S3">
-        <v>0.4898973270305839</v>
+        <v>0.4231639795316806</v>
       </c>
       <c r="T3">
-        <v>0.4898973270305839</v>
+        <v>0.4231639795316806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>1.785988</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>3.011156122132</v>
+        <v>3.866788840716889</v>
       </c>
       <c r="R4">
-        <v>27.100405099188</v>
+        <v>34.801099566452</v>
       </c>
       <c r="S4">
-        <v>0.08007141251452472</v>
+        <v>0.08881744911846541</v>
       </c>
       <c r="T4">
-        <v>0.08007141251452471</v>
+        <v>0.08881744911846542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>1.785988</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>4.389534827957776</v>
+        <v>5.899589666388889</v>
       </c>
       <c r="R5">
-        <v>39.50581345161999</v>
+        <v>53.0963069975</v>
       </c>
       <c r="S5">
-        <v>0.1167246863664523</v>
+        <v>0.1355094696397164</v>
       </c>
       <c r="T5">
-        <v>0.1167246863664523</v>
+        <v>0.1355094696397164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>1.785988</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>3.647904501616444</v>
+        <v>2.733238727895111</v>
       </c>
       <c r="R6">
-        <v>32.831140514548</v>
+        <v>24.599148551056</v>
       </c>
       <c r="S6">
-        <v>0.09700356086343023</v>
+        <v>0.06278059176317383</v>
       </c>
       <c r="T6">
-        <v>0.09700356086343022</v>
+        <v>0.06278059176317384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.305419</v>
+      </c>
+      <c r="I7">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J7">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.50827633333333</v>
+      </c>
+      <c r="N7">
+        <v>31.524829</v>
+      </c>
+      <c r="O7">
+        <v>0.1682660991018133</v>
+      </c>
+      <c r="P7">
+        <v>0.1682660991018134</v>
+      </c>
+      <c r="Q7">
+        <v>1.069809083150111</v>
+      </c>
+      <c r="R7">
+        <v>9.628281748351</v>
+      </c>
+      <c r="S7">
+        <v>0.02457277025541979</v>
+      </c>
+      <c r="T7">
+        <v>0.02457277025541979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.305419</v>
+      </c>
+      <c r="I8">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J8">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N8">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O8">
+        <v>0.4955285863849104</v>
+      </c>
+      <c r="P8">
+        <v>0.4955285863849105</v>
+      </c>
+      <c r="Q8">
+        <v>3.150491902438111</v>
+      </c>
+      <c r="R8">
+        <v>28.354427121943</v>
+      </c>
+      <c r="S8">
+        <v>0.07236460685322989</v>
+      </c>
+      <c r="T8">
+        <v>0.0723646068532299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.305419</v>
+      </c>
+      <c r="I9">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J9">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.495209666666667</v>
+      </c>
+      <c r="N9">
+        <v>19.485629</v>
+      </c>
+      <c r="O9">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="P9">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="Q9">
+        <v>0.6612534803945556</v>
+      </c>
+      <c r="R9">
+        <v>5.951281323551</v>
+      </c>
+      <c r="S9">
+        <v>0.01518853233745836</v>
+      </c>
+      <c r="T9">
+        <v>0.01518853233745836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.305419</v>
+      </c>
+      <c r="I10">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J10">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.909791666666667</v>
+      </c>
+      <c r="N10">
+        <v>29.729375</v>
+      </c>
+      <c r="O10">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="P10">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="Q10">
+        <v>1.008879553680555</v>
+      </c>
+      <c r="R10">
+        <v>9.079915983125</v>
+      </c>
+      <c r="S10">
+        <v>0.02317326135891874</v>
+      </c>
+      <c r="T10">
+        <v>0.02317326135891874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.305419</v>
+      </c>
+      <c r="I11">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J11">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.591137333333333</v>
+      </c>
+      <c r="N11">
+        <v>13.773412</v>
+      </c>
+      <c r="O11">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="P11">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="Q11">
+        <v>0.4674068577364444</v>
+      </c>
+      <c r="R11">
+        <v>4.206661719628</v>
+      </c>
+      <c r="S11">
+        <v>0.0107360102955433</v>
+      </c>
+      <c r="T11">
+        <v>0.0107360102955433</v>
       </c>
     </row>
   </sheetData>
